--- a/src/test/java/com/test/datas/LoginTestData.xlsx
+++ b/src/test/java/com/test/datas/LoginTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34473FE5-F513-4F82-B2FB-3550EE0D94B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3767249-14FF-460E-8774-7656A2C00553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1655,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
